--- a/DesignDocument/Map/Map1.xlsx
+++ b/DesignDocument/Map/Map1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FinalTerm\DesignDocument\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D57C890-1AFB-4599-8D67-EB16A8888F5F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFB3197-1989-4126-8324-5E8BCDF56471}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12180" xr2:uid="{5DBF745C-A085-4DAE-9F6F-05DB02B3DAD9}"/>
   </bookViews>
@@ -215,12 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3684E7A-02E1-498B-8375-42E939E7A485}">
   <dimension ref="A1:CX101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CC35" sqref="CC35"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="BR15" sqref="BR15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -3585,8 +3580,8 @@
       <c r="BR10" s="1">
         <v>1</v>
       </c>
-      <c r="BS10" s="1" t="s">
-        <v>0</v>
+      <c r="BS10" s="1">
+        <v>1</v>
       </c>
       <c r="BT10" s="1">
         <v>1</v>
@@ -18642,7 +18637,7 @@
       </c>
       <c r="F60" s="1">
         <f ca="1">ROUNDUP( RAND()*3,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" ref="G60:AJ68" ca="1" si="0">ROUNDUP( RAND()*3,0)</f>
@@ -18650,7 +18645,7 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -18662,7 +18657,7 @@
       </c>
       <c r="K60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -18674,11 +18669,11 @@
       </c>
       <c r="N60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P60" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -18690,19 +18685,19 @@
       </c>
       <c r="R60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V60" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -18710,7 +18705,7 @@
       </c>
       <c r="W60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X60" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -18718,7 +18713,7 @@
       </c>
       <c r="Y60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z60" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -18726,15 +18721,15 @@
       </c>
       <c r="AA60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -18742,7 +18737,7 @@
       </c>
       <c r="AE60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF60" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -18750,19 +18745,19 @@
       </c>
       <c r="AG60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK60" s="1">
         <v>3</v>
@@ -18978,11 +18973,11 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" ref="F61:U84" ca="1" si="1">ROUNDUP( RAND()*3,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -18990,19 +18985,19 @@
       </c>
       <c r="I61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M61" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19018,7 +19013,7 @@
       </c>
       <c r="P61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q61" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19026,7 +19021,7 @@
       </c>
       <c r="R61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S61" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19034,11 +19029,11 @@
       </c>
       <c r="T61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V61" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19050,15 +19045,15 @@
       </c>
       <c r="X61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA61" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19066,19 +19061,19 @@
       </c>
       <c r="AB61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF61" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19086,19 +19081,19 @@
       </c>
       <c r="AG61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK61" s="1">
         <v>3</v>
@@ -19318,7 +19313,7 @@
       </c>
       <c r="G62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19326,15 +19321,15 @@
       </c>
       <c r="I62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19346,11 +19341,11 @@
       </c>
       <c r="N62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P62" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19358,7 +19353,7 @@
       </c>
       <c r="Q62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R62" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19366,11 +19361,11 @@
       </c>
       <c r="S62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U62" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19378,7 +19373,7 @@
       </c>
       <c r="V62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W62" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19394,7 +19389,7 @@
       </c>
       <c r="Z62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA62" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19402,39 +19397,39 @@
       </c>
       <c r="AB62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK62" s="1">
         <v>3</v>
@@ -19658,7 +19653,7 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19666,11 +19661,11 @@
       </c>
       <c r="J63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19678,7 +19673,7 @@
       </c>
       <c r="M63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19690,7 +19685,7 @@
       </c>
       <c r="P63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q63" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19698,15 +19693,15 @@
       </c>
       <c r="R63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U63" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19714,11 +19709,11 @@
       </c>
       <c r="V63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X63" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19726,7 +19721,7 @@
       </c>
       <c r="Y63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z63" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19734,15 +19729,15 @@
       </c>
       <c r="AA63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD63" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19762,15 +19757,15 @@
       </c>
       <c r="AH63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK63" s="1">
         <v>3</v>
@@ -19986,11 +19981,11 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -19998,11 +19993,11 @@
       </c>
       <c r="I64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20022,19 +20017,19 @@
       </c>
       <c r="O64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S64" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20042,7 +20037,7 @@
       </c>
       <c r="T64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U64" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20050,11 +20045,11 @@
       </c>
       <c r="V64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X64" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20062,23 +20057,23 @@
       </c>
       <c r="Y64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD64" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20090,7 +20085,7 @@
       </c>
       <c r="AF64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG64" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20098,15 +20093,15 @@
       </c>
       <c r="AH64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK64" s="1">
         <v>3</v>
@@ -20322,35 +20317,35 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N65" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20366,19 +20361,19 @@
       </c>
       <c r="Q65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U65" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20394,19 +20389,19 @@
       </c>
       <c r="X65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB65" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20414,7 +20409,7 @@
       </c>
       <c r="AC65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD65" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20426,7 +20421,7 @@
       </c>
       <c r="AF65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG65" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20438,11 +20433,11 @@
       </c>
       <c r="AI65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK65" s="1">
         <v>3</v>
@@ -20658,19 +20653,19 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20678,11 +20673,11 @@
       </c>
       <c r="K66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M66" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20690,11 +20685,11 @@
       </c>
       <c r="N66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P66" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20702,11 +20697,11 @@
       </c>
       <c r="Q66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S66" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20714,7 +20709,7 @@
       </c>
       <c r="T66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U66" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20730,19 +20725,19 @@
       </c>
       <c r="X66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB66" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20750,11 +20745,11 @@
       </c>
       <c r="AC66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE66" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20762,7 +20757,7 @@
       </c>
       <c r="AF66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG66" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -20994,11 +20989,11 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -21006,19 +21001,19 @@
       </c>
       <c r="I67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M67" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -21026,11 +21021,11 @@
       </c>
       <c r="N67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P67" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -21038,7 +21033,7 @@
       </c>
       <c r="Q67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R67" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -21050,11 +21045,11 @@
       </c>
       <c r="T67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V67" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -21062,7 +21057,7 @@
       </c>
       <c r="W67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X67" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -21070,7 +21065,7 @@
       </c>
       <c r="Y67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z67" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -21078,11 +21073,11 @@
       </c>
       <c r="AA67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC67" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -21090,19 +21085,19 @@
       </c>
       <c r="AD67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH67" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -21114,7 +21109,7 @@
       </c>
       <c r="AJ67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK67" s="1">
         <v>3</v>
@@ -21330,7 +21325,7 @@
       </c>
       <c r="F68" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -21342,7 +21337,7 @@
       </c>
       <c r="I68" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -21350,15 +21345,15 @@
       </c>
       <c r="K68" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M68" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N68" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -21374,15 +21369,15 @@
       </c>
       <c r="Q68" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R68" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S68" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T68" s="1">
         <f t="shared" ca="1" si="0"/>
@@ -21394,7 +21389,7 @@
       </c>
       <c r="V68" s="1">
         <f t="shared" ref="V68:AJ85" ca="1" si="2">ROUNDUP( RAND()*3,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W68" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -21406,15 +21401,15 @@
       </c>
       <c r="Y68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB68" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -21426,19 +21421,19 @@
       </c>
       <c r="AD68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH68" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -21446,11 +21441,11 @@
       </c>
       <c r="AI68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK68" s="1">
         <v>3</v>
@@ -21666,19 +21661,19 @@
       </c>
       <c r="F69" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -21694,15 +21689,15 @@
       </c>
       <c r="M69" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N69" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O69" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P69" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -21714,43 +21709,43 @@
       </c>
       <c r="R69" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S69" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T69" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U69" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB69" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -21758,23 +21753,23 @@
       </c>
       <c r="AC69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH69" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -21782,11 +21777,11 @@
       </c>
       <c r="AI69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK69" s="1">
         <v>3</v>
@@ -22002,11 +21997,11 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -22026,15 +22021,15 @@
       </c>
       <c r="L70" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M70" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O70" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -22042,19 +22037,19 @@
       </c>
       <c r="P70" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R70" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S70" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T70" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -22062,7 +22057,7 @@
       </c>
       <c r="U70" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V70" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -22078,7 +22073,7 @@
       </c>
       <c r="Y70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z70" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -22086,31 +22081,31 @@
       </c>
       <c r="AA70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH70" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -22118,11 +22113,11 @@
       </c>
       <c r="AI70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK70" s="1">
         <v>3</v>
@@ -22338,15 +22333,15 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I71" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -22358,7 +22353,7 @@
       </c>
       <c r="K71" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -22370,23 +22365,23 @@
       </c>
       <c r="N71" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O71" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P71" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R71" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S71" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -22394,7 +22389,7 @@
       </c>
       <c r="T71" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U71" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -22402,19 +22397,19 @@
       </c>
       <c r="V71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z71" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -22430,7 +22425,7 @@
       </c>
       <c r="AC71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD71" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -22446,11 +22441,11 @@
       </c>
       <c r="AG71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI71" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -22458,7 +22453,7 @@
       </c>
       <c r="AJ71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK71" s="1">
         <v>3</v>
@@ -22674,19 +22669,19 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J72" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -22698,15 +22693,15 @@
       </c>
       <c r="L72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O72" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -22714,11 +22709,11 @@
       </c>
       <c r="P72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R72" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -22726,15 +22721,15 @@
       </c>
       <c r="S72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U72" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V72" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -22746,7 +22741,7 @@
       </c>
       <c r="X72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y72" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -22754,19 +22749,19 @@
       </c>
       <c r="Z72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD72" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -22774,11 +22769,11 @@
       </c>
       <c r="AE72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG72" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -22786,15 +22781,15 @@
       </c>
       <c r="AH72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK72" s="1">
         <v>3</v>
@@ -23010,7 +23005,7 @@
       </c>
       <c r="F73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G73" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -23018,11 +23013,11 @@
       </c>
       <c r="H73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -23030,19 +23025,19 @@
       </c>
       <c r="K73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O73" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -23050,43 +23045,43 @@
       </c>
       <c r="P73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U73" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z73" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -23094,35 +23089,35 @@
       </c>
       <c r="AA73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI73" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -23346,15 +23341,15 @@
       </c>
       <c r="F74" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -23362,15 +23357,15 @@
       </c>
       <c r="J74" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K74" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M74" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -23382,11 +23377,11 @@
       </c>
       <c r="O74" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P74" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q74" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -23398,11 +23393,11 @@
       </c>
       <c r="S74" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T74" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U74" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -23410,15 +23405,15 @@
       </c>
       <c r="V74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y74" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -23426,23 +23421,23 @@
       </c>
       <c r="Z74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE74" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -23466,7 +23461,7 @@
       </c>
       <c r="AJ74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK74" s="1">
         <v>3</v>
@@ -23686,23 +23681,23 @@
       </c>
       <c r="G75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L75" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -23714,11 +23709,11 @@
       </c>
       <c r="N75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P75" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -23730,7 +23725,7 @@
       </c>
       <c r="R75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S75" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -23738,19 +23733,19 @@
       </c>
       <c r="T75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X75" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -23762,11 +23757,11 @@
       </c>
       <c r="Z75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB75" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -23774,11 +23769,11 @@
       </c>
       <c r="AC75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE75" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -23790,11 +23785,11 @@
       </c>
       <c r="AG75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI75" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -23802,7 +23797,7 @@
       </c>
       <c r="AJ75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK75" s="1">
         <v>3</v>
@@ -24018,19 +24013,19 @@
       </c>
       <c r="F76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -24038,7 +24033,7 @@
       </c>
       <c r="K76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -24046,11 +24041,11 @@
       </c>
       <c r="M76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O76" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -24058,7 +24053,7 @@
       </c>
       <c r="P76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q76" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -24070,7 +24065,7 @@
       </c>
       <c r="S76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T76" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -24078,7 +24073,7 @@
       </c>
       <c r="U76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V76" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -24086,27 +24081,27 @@
       </c>
       <c r="W76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC76" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -24114,11 +24109,11 @@
       </c>
       <c r="AD76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF76" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -24126,7 +24121,7 @@
       </c>
       <c r="AG76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH76" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -24354,11 +24349,11 @@
       </c>
       <c r="F77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -24366,15 +24361,15 @@
       </c>
       <c r="I77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L77" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -24382,11 +24377,11 @@
       </c>
       <c r="M77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O77" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -24398,15 +24393,15 @@
       </c>
       <c r="Q77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T77" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -24414,15 +24409,15 @@
       </c>
       <c r="U77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X77" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -24430,7 +24425,7 @@
       </c>
       <c r="Y77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z77" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -24438,19 +24433,19 @@
       </c>
       <c r="AA77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE77" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -24458,23 +24453,23 @@
       </c>
       <c r="AF77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK77" s="1">
         <v>3</v>
@@ -24690,15 +24685,15 @@
       </c>
       <c r="F78" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -24706,7 +24701,7 @@
       </c>
       <c r="J78" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K78" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -24742,7 +24737,7 @@
       </c>
       <c r="S78" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T78" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -24750,7 +24745,7 @@
       </c>
       <c r="U78" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V78" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -24758,27 +24753,27 @@
       </c>
       <c r="W78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC78" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -24786,19 +24781,19 @@
       </c>
       <c r="AD78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH78" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -24806,11 +24801,11 @@
       </c>
       <c r="AI78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK78" s="1">
         <v>3</v>
@@ -25030,31 +25025,31 @@
       </c>
       <c r="G79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N79" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -25062,59 +25057,59 @@
       </c>
       <c r="O79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC79" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -25122,15 +25117,15 @@
       </c>
       <c r="AD79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG79" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -25366,19 +25361,19 @@
       </c>
       <c r="G80" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K80" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -25394,11 +25389,11 @@
       </c>
       <c r="N80" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O80" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P80" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -25406,7 +25401,7 @@
       </c>
       <c r="Q80" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R80" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -25426,7 +25421,7 @@
       </c>
       <c r="V80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W80" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -25438,7 +25433,7 @@
       </c>
       <c r="Y80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z80" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -25446,19 +25441,19 @@
       </c>
       <c r="AA80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE80" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -25466,7 +25461,7 @@
       </c>
       <c r="AF80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG80" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -25474,7 +25469,7 @@
       </c>
       <c r="AH80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI80" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -25482,7 +25477,7 @@
       </c>
       <c r="AJ80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK80" s="1">
         <v>3</v>
@@ -25698,15 +25693,15 @@
       </c>
       <c r="F81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -25718,7 +25713,7 @@
       </c>
       <c r="K81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L81" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -25726,15 +25721,15 @@
       </c>
       <c r="M81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P81" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -25742,7 +25737,7 @@
       </c>
       <c r="Q81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R81" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -25750,35 +25745,35 @@
       </c>
       <c r="S81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA81" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -25794,31 +25789,31 @@
       </c>
       <c r="AD81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK81" s="1">
         <v>3</v>
@@ -26038,7 +26033,7 @@
       </c>
       <c r="G82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -26046,7 +26041,7 @@
       </c>
       <c r="I82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -26054,15 +26049,15 @@
       </c>
       <c r="K82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N82" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -26070,27 +26065,27 @@
       </c>
       <c r="O82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U82" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -26098,7 +26093,7 @@
       </c>
       <c r="V82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W82" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -26106,23 +26101,23 @@
       </c>
       <c r="X82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC82" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -26130,23 +26125,23 @@
       </c>
       <c r="AD82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI82" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -26370,11 +26365,11 @@
       </c>
       <c r="F83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -26386,15 +26381,15 @@
       </c>
       <c r="J83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M83" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -26402,7 +26397,7 @@
       </c>
       <c r="N83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O83" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -26410,7 +26405,7 @@
       </c>
       <c r="P83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q83" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -26422,11 +26417,11 @@
       </c>
       <c r="S83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U83" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -26434,11 +26429,11 @@
       </c>
       <c r="V83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X83" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -26446,23 +26441,23 @@
       </c>
       <c r="Y83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD83" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -26470,27 +26465,27 @@
       </c>
       <c r="AE83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK83" s="1">
         <v>3</v>
@@ -26706,7 +26701,7 @@
       </c>
       <c r="F84" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -26714,35 +26709,35 @@
       </c>
       <c r="H84" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K84" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L84" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M84" s="1">
         <f t="shared" ref="M84:AB85" ca="1" si="3">ROUNDUP( RAND()*3,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P84" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -26754,7 +26749,7 @@
       </c>
       <c r="R84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S84" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -26762,7 +26757,7 @@
       </c>
       <c r="T84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U84" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -26770,35 +26765,35 @@
       </c>
       <c r="V84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD84" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -26810,11 +26805,11 @@
       </c>
       <c r="AF84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH84" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -26826,7 +26821,7 @@
       </c>
       <c r="AJ84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK84" s="1">
         <v>3</v>
@@ -27042,7 +27037,7 @@
       </c>
       <c r="F85" s="1">
         <f t="shared" ref="F85:U97" ca="1" si="4">ROUNDUP( RAND()*3,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -27050,11 +27045,11 @@
       </c>
       <c r="H85" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -27062,19 +27057,19 @@
       </c>
       <c r="K85" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L85" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M85" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N85" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O85" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -27086,11 +27081,11 @@
       </c>
       <c r="Q85" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R85" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S85" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -27098,7 +27093,7 @@
       </c>
       <c r="T85" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U85" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -27106,19 +27101,19 @@
       </c>
       <c r="V85" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W85" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X85" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y85" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z85" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -27126,7 +27121,7 @@
       </c>
       <c r="AA85" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB85" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -27134,7 +27129,7 @@
       </c>
       <c r="AC85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD85" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -27142,15 +27137,15 @@
       </c>
       <c r="AE85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH85" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -27162,7 +27157,7 @@
       </c>
       <c r="AJ85" s="1">
         <f t="shared" ref="G85:AJ94" ca="1" si="5">ROUNDUP( RAND()*3,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK85" s="1">
         <v>3</v>
@@ -27378,7 +27373,7 @@
       </c>
       <c r="F86" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -27390,11 +27385,11 @@
       </c>
       <c r="I86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K86" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -27406,7 +27401,7 @@
       </c>
       <c r="M86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N86" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -27422,11 +27417,11 @@
       </c>
       <c r="Q86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S86" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -27434,11 +27429,11 @@
       </c>
       <c r="T86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V86" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -27446,11 +27441,11 @@
       </c>
       <c r="W86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y86" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -27458,19 +27453,19 @@
       </c>
       <c r="Z86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD86" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -27478,11 +27473,11 @@
       </c>
       <c r="AE86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG86" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -27490,7 +27485,7 @@
       </c>
       <c r="AH86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI86" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -27498,7 +27493,7 @@
       </c>
       <c r="AJ86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK86" s="1">
         <v>3</v>
@@ -27714,15 +27709,15 @@
       </c>
       <c r="F87" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -27730,11 +27725,11 @@
       </c>
       <c r="J87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L87" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -27746,19 +27741,19 @@
       </c>
       <c r="N87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R87" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -27766,51 +27761,51 @@
       </c>
       <c r="S87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE87" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -27818,23 +27813,23 @@
       </c>
       <c r="AF87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK87" s="1">
         <v>3</v>
@@ -28050,7 +28045,7 @@
       </c>
       <c r="F88" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28058,19 +28053,19 @@
       </c>
       <c r="H88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L88" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28078,7 +28073,7 @@
       </c>
       <c r="M88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N88" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28086,7 +28081,7 @@
       </c>
       <c r="O88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P88" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28102,35 +28097,35 @@
       </c>
       <c r="S88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA88" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28138,11 +28133,11 @@
       </c>
       <c r="AB88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD88" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28150,11 +28145,11 @@
       </c>
       <c r="AE88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG88" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28162,15 +28157,15 @@
       </c>
       <c r="AH88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK88" s="1">
         <v>3</v>
@@ -28390,15 +28385,15 @@
       </c>
       <c r="G89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J89" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28406,11 +28401,11 @@
       </c>
       <c r="K89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M89" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28418,11 +28413,11 @@
       </c>
       <c r="N89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P89" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28430,11 +28425,11 @@
       </c>
       <c r="Q89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S89" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28442,7 +28437,7 @@
       </c>
       <c r="T89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U89" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28450,7 +28445,7 @@
       </c>
       <c r="V89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W89" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28462,27 +28457,27 @@
       </c>
       <c r="Y89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE89" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28494,19 +28489,19 @@
       </c>
       <c r="AG89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK89" s="1">
         <v>3</v>
@@ -28722,19 +28717,19 @@
       </c>
       <c r="F90" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28742,15 +28737,15 @@
       </c>
       <c r="K90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N90" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28758,23 +28753,23 @@
       </c>
       <c r="O90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T90" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28782,7 +28777,7 @@
       </c>
       <c r="U90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V90" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28790,31 +28785,31 @@
       </c>
       <c r="W90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD90" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28822,15 +28817,15 @@
       </c>
       <c r="AE90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH90" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -28838,7 +28833,7 @@
       </c>
       <c r="AI90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ90" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29058,47 +29053,47 @@
       </c>
       <c r="F91" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q91" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29110,7 +29105,7 @@
       </c>
       <c r="S91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T91" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29118,43 +29113,43 @@
       </c>
       <c r="U91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE91" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29162,23 +29157,23 @@
       </c>
       <c r="AF91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK91" s="1">
         <v>3</v>
@@ -29394,19 +29389,19 @@
       </c>
       <c r="F92" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29414,11 +29409,11 @@
       </c>
       <c r="K92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M92" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29426,43 +29421,43 @@
       </c>
       <c r="N92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X92" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29470,11 +29465,11 @@
       </c>
       <c r="Y92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA92" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29482,35 +29477,35 @@
       </c>
       <c r="AB92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ92" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29734,11 +29729,11 @@
       </c>
       <c r="G93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29746,7 +29741,7 @@
       </c>
       <c r="J93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K93" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29762,11 +29757,11 @@
       </c>
       <c r="N93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P93" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29786,19 +29781,19 @@
       </c>
       <c r="T93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X93" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29814,15 +29809,15 @@
       </c>
       <c r="AA93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD93" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29830,7 +29825,7 @@
       </c>
       <c r="AE93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF93" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29838,7 +29833,7 @@
       </c>
       <c r="AG93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH93" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -29846,11 +29841,11 @@
       </c>
       <c r="AI93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK93" s="1">
         <v>3</v>
@@ -30066,23 +30061,23 @@
       </c>
       <c r="F94" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G94" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H94" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J94" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K94" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -30090,7 +30085,7 @@
       </c>
       <c r="L94" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M94" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -30098,19 +30093,19 @@
       </c>
       <c r="N94" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O94" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P94" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q94" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R94" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -30122,7 +30117,7 @@
       </c>
       <c r="T94" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U94" s="1">
         <f t="shared" ref="U94:AJ97" ca="1" si="6">ROUNDUP( RAND()*3,0)</f>
@@ -30142,19 +30137,19 @@
       </c>
       <c r="Y94" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z94" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA94" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB94" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC94" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -30162,15 +30157,15 @@
       </c>
       <c r="AD94" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE94" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF94" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG94" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -30186,7 +30181,7 @@
       </c>
       <c r="AJ94" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK94" s="1">
         <v>3</v>
@@ -30402,23 +30397,23 @@
       </c>
       <c r="F95" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G95" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J95" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K95" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -30426,7 +30421,7 @@
       </c>
       <c r="L95" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -30438,31 +30433,31 @@
       </c>
       <c r="O95" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P95" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q95" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R95" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S95" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T95" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U95" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V95" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -30474,11 +30469,11 @@
       </c>
       <c r="X95" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y95" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z95" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -30494,19 +30489,19 @@
       </c>
       <c r="AC95" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD95" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE95" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF95" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG95" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -30518,11 +30513,11 @@
       </c>
       <c r="AI95" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ95" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK95" s="1">
         <v>3</v>
@@ -30742,7 +30737,7 @@
       </c>
       <c r="G96" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -30750,7 +30745,7 @@
       </c>
       <c r="I96" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -30762,15 +30757,15 @@
       </c>
       <c r="L96" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M96" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N96" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O96" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -30786,7 +30781,7 @@
       </c>
       <c r="R96" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S96" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -30794,7 +30789,7 @@
       </c>
       <c r="T96" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U96" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -30802,27 +30797,27 @@
       </c>
       <c r="V96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB96" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -30830,7 +30825,7 @@
       </c>
       <c r="AC96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD96" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -30838,23 +30833,23 @@
       </c>
       <c r="AE96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI96" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ96" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -31074,15 +31069,15 @@
       </c>
       <c r="F97" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G97" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -31094,7 +31089,7 @@
       </c>
       <c r="K97" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L97" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -31102,7 +31097,7 @@
       </c>
       <c r="M97" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N97" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -31114,15 +31109,15 @@
       </c>
       <c r="P97" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q97" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R97" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S97" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -31130,7 +31125,7 @@
       </c>
       <c r="T97" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U97" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -31138,23 +31133,23 @@
       </c>
       <c r="V97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA97" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -31162,7 +31157,7 @@
       </c>
       <c r="AB97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC97" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -31174,7 +31169,7 @@
       </c>
       <c r="AE97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF97" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -31182,7 +31177,7 @@
       </c>
       <c r="AG97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH97" s="1">
         <f t="shared" ca="1" si="6"/>
@@ -31190,11 +31185,11 @@
       </c>
       <c r="AI97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ97" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK97" s="1">
         <v>3</v>
